--- a/data/evaluation/evaluation_South_Autumn_Cucumbers.xlsx
+++ b/data/evaluation/evaluation_South_Autumn_Cucumbers.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1126.597222222222</v>
+        <v>1136.180555555556</v>
       </c>
       <c r="C3" t="n">
-        <v>3519798.549107143</v>
+        <v>3526530.840773809</v>
       </c>
       <c r="D3" t="n">
-        <v>1876.112616317886</v>
+        <v>1877.905972293024</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5505677226369829</v>
+        <v>0.5497080969699432</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1149.217218761922</v>
+        <v>1174.43056747993</v>
       </c>
       <c r="C4" t="n">
-        <v>3579158.480746822</v>
+        <v>3609996.438467831</v>
       </c>
       <c r="D4" t="n">
-        <v>1891.866401400168</v>
+        <v>1899.999062754461</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5429882350928161</v>
+        <v>0.5390506308877989</v>
       </c>
     </row>
     <row r="5">
